--- a/Finflux Automation Excels/Client/5047-CompondingPenalityCharge-MoraoriumOnPrinciple2-Preclose.xlsx
+++ b/Finflux Automation Excels/Client/5047-CompondingPenalityCharge-MoraoriumOnPrinciple2-Preclose.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>clickonnewloan</t>
   </si>
@@ -251,24 +251,6 @@
   </si>
   <si>
     <t>Actions</t>
-  </si>
-  <si>
-    <t>nabkisan overdue charges</t>
-  </si>
-  <si>
-    <t>penalty</t>
-  </si>
-  <si>
-    <t>Overdue Fees</t>
-  </si>
-  <si>
-    <t>% Loan Amount + Interest</t>
-  </si>
-  <si>
-    <t>$0.12</t>
-  </si>
-  <si>
-    <t>$0</t>
   </si>
 </sst>
 </file>
@@ -932,7 +914,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,14 +944,14 @@
         <v>5000</v>
       </c>
       <c r="B2" s="13">
-        <v>505.93</v>
+        <v>506.05</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13">
         <v>0</v>
       </c>
       <c r="E2" s="14">
-        <v>4494.07</v>
+        <v>4493.95</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
@@ -992,7 +974,7 @@
         <v>127.48</v>
       </c>
       <c r="F3" s="13">
-        <v>0</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,10 +999,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="B5" s="13">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13">
         <v>0</v>
@@ -1131,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G4" s="13">
-        <v>46.15</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,7 +1244,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="13">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13">
-        <v>43.06</v>
+        <v>42.94</v>
       </c>
       <c r="L4" s="13">
         <v>548.99</v>
@@ -1436,7 +1418,7 @@
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13">
-        <v>43.06</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1674,7 +1656,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1698,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>406</v>
+        <v>661</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>64</v>
@@ -1735,12 +1717,12 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="14">
-        <v>4533.91</v>
+        <v>4533.79</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>405</v>
+        <v>660</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>64</v>
@@ -1764,7 +1746,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>404</v>
+        <v>659</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>64</v>
@@ -1776,19 +1758,19 @@
         <v>65</v>
       </c>
       <c r="E4" s="13">
-        <v>43.79</v>
+        <v>43.67</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14">
-        <v>4488.17</v>
+        <v>4488.05</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>403</v>
+        <v>658</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>64</v>
@@ -1800,7 +1782,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="13">
-        <v>43.79</v>
+        <v>43.67</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1812,7 +1794,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>402</v>
+        <v>657</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>64</v>
@@ -1836,7 +1818,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>397</v>
+        <v>652</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>64</v>
@@ -1860,7 +1842,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>396</v>
+        <v>651</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>64</v>
@@ -1884,7 +1866,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>395</v>
+        <v>650</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>64</v>
@@ -1913,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,49 +1939,6 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="15">
-        <v>42050</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
